--- a/notebooks/places_of_stay_no_wikidata.xlsx
+++ b/notebooks/places_of_stay_no_wikidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1483</v>
+        <v>1508</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-pereira</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tomé (Sancho) Pereira</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>chegada</t>
+          <t>jesuita-ordenacao-padre</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -969,16 +969,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16720000</t>
+          <t>16340000</t>
         </is>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>787</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -998,7 +1002,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jesuita-ordenacao-padre</t>
+          <t>chegada</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1008,25 +1012,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16730000</t>
+          <t>16720000</t>
         </is>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>802</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "antes de"}}</t>
-        </is>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-sa</t>
+          <t>deh-tome-pereira</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Manuel de Sá</t>
+          <t>Tomé (Sancho) Pereira</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1051,14 +1051,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16800000</t>
+          <t>16730000</t>
         </is>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>74</v>
+        <v>802</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-manuel-de-sa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Manuel de Sá</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1094,25 +1094,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16820000</t>
+          <t>16800000</t>
         </is>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>831</v>
+        <v>74</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
+          <t>extra_info: {"date": {"comment": "antes de"}}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-osorio-i</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Manuel Osório</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1137,25 +1137,25 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>16900000</t>
+          <t>16820000</t>
         </is>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>142</v>
+        <v>831</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "antes de"}}</t>
+          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-lopes-junior</t>
+          <t>deh-manuel-osorio-i</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>António Lopes, júnior</t>
+          <t>Manuel Osório</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1180,21 +1180,25 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16960000</t>
+          <t>16900000</t>
         </is>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1338</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "antes de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>deh-estevao-collasco</t>
+          <t>deh-antonio-lopes-junior</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1204,7 +1208,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Estêvão Collasco</t>
+          <t>António Lopes, júnior</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1219,21 +1223,21 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>16990000</t>
+          <t>16960000</t>
         </is>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1732</v>
+        <v>1354</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-gomes</t>
+          <t>deh-estevao-collasco</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1243,7 +1247,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>António Gomes</t>
+          <t>Estêvão Collasco</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1258,21 +1262,21 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17330000</t>
+          <t>16990000</t>
         </is>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>738</v>
+        <v>1732</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-ribeiro-senior</t>
+          <t>deh-antonio-gomes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1282,12 +1286,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Manuel Ribeiro, sénior</t>
+          <t>António Gomes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>jesuita-ordenacao-padre</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1297,25 +1301,21 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17340000</t>
+          <t>17330000</t>
         </is>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>342</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "depois de"}}</t>
-        </is>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-montanha-ii</t>
+          <t>deh-manuel-ribeiro-senior</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>José Montanha</t>
+          <t>Manuel Ribeiro, sénior</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jesuita-ordenacao-padre</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1340,25 +1340,25 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>17410000</t>
+          <t>17340000</t>
         </is>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1662</v>
+        <v>342</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "antes de"}}</t>
+          <t>extra_info: {"date": {"comment": "depois de"}}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-pires</t>
+          <t>deh-jose-montanha-ii</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Inácio Pires</t>
+          <t>José Montanha</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1383,25 +1383,25 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17430000</t>
+          <t>17410000</t>
         </is>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1519</v>
+        <v>1687</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "entre esta data e 17500000"}}</t>
+          <t>extra_info: {"date": {"comment": "antes de"}}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-inacio-pires</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>Inácio Pires</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>jesuita-ordenacao-padre</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1426,25 +1426,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>17520000</t>
+          <t>17430000</t>
         </is>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1176</v>
+        <v>1519</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "depois de"}}</t>
+          <t>extra_info: {"date": {"comment": "entre esta data e 17500000"}}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-pires</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Inácio Pires</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>chegada</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1469,16 +1469,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17530000</t>
+          <t>17520000</t>
         </is>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1515</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1201</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "depois de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1498,7 +1502,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>chegada</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1508,25 +1512,21 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>17760000</t>
+          <t>17530000</t>
         </is>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1522</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "depois de"}}</t>
-        </is>
-      </c>
+        <v>1515</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-inacio-pires</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1536,36 +1536,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Inácio Pires</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chan-tong</t>
+          <t>?</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>16930000</t>
+          <t>17760000</t>
         </is>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1314</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1522</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "depois de"}}</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1575,7 +1579,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1585,19 +1589,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Changchow, Fukien</t>
+          <t>Chan-tong</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>16160000&gt;</t>
+          <t>16930000</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>769</v>
+        <v>1314</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1624,26 +1628,26 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chao-tcheou</t>
+          <t>Changchow, Fukien</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15970700</t>
+          <t>16160000&gt;</t>
         </is>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1653,7 +1657,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1663,19 +1667,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chen-si</t>
+          <t>Chao-tcheou</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16910000</t>
+          <t>15970700</t>
         </is>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1310</v>
+        <v>759</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1702,30 +1706,26 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cheng-ting fou</t>
+          <t>Chen-si</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>17000000</t>
+          <t>16910000</t>
         </is>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1316</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "com destino a Ho-nan"}}</t>
-        </is>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1745,26 +1745,30 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chengting fou, Hopei</t>
+          <t>Cheng-ting fou</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>16920000</t>
+          <t>17000000</t>
         </is>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>806</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1316</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "com destino a Ho-nan"}}</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>deh-lourenco-mexia</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1774,40 +1778,40 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lourenço Mexia</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jesuita-entrada</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Chengdu, Sichuan</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15600314</t>
+          <t>16420528</t>
         </is>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1464</v>
+        <v>239</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 15600325 ou Coimbra, 25-03-1560 MMHM"}, "value": {"comment": "Domingues &amp; O Neil, IV: 2645. MMHM:p.226", "original": "?"}}</t>
+          <t>extra_info: {"value": {"original": "Chengtu (Tch'eng-tou), Sseu-tch'ouan"}}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-gaspar</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1817,40 +1821,40 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Manuel Gaspar</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jesuita-entrada</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Chengdu, Sichuan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15750926</t>
+          <t>16470000</t>
         </is>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Schutte, Monumenta historica japoniae I.,p.1180", "original": "?"}}</t>
+          <t>difficultés avec le tyran Tchang hien-tchong extra_info: {"value": {"original": "Chengtu (Tch'eng-tou), Sseu-tch'ouan"}}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1860,40 +1864,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jesuita-entrada</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Chengting fou, Hopei</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>15830000</t>
+          <t>16920000</t>
         </is>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>754</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Corrigido: local de entrada extra_info: {"value": {"comment": "Em Coimbra no ano de 1582 segundo a Carta Annua de 1623 BA", "original": "?"}}</t>
-        </is>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-lourenco-mexia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>Lourenço Mexia</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1918,25 +1918,25 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15831222</t>
+          <t>15600314</t>
         </is>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2391</v>
+        <v>1489</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.94 (ARSI Japsin 35 13)", "original": "?"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 15600325 ou Coimbra, 25-03-1560 MMHM"}, "value": {"comment": "Domingues &amp; O Neil, IV: 2645. MMHM:p.226", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-manuel-gaspar</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Manuel Gaspar</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1961,25 +1961,25 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>15840114</t>
+          <t>15750926</t>
         </is>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Segundo Dominguez &amp; O Neil, V.III,p.2961. Franco Imagem...Coimbra,II,4,c.36,p.575", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "Schutte, Monumenta historica japoniae I.,p.1180", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>15930202</t>
+          <t>15830000</t>
         </is>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>484</v>
+        <v>754</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Segungo Dominguez, J. M., &amp; O\u2019Neill, C. (2001) II, 1113", "original": "?"}}</t>
+          <t>Corrigido: local de entrada extra_info: {"value": {"comment": "Em Coimbra no ano de 1582 segundo a Carta Annua de 1623 BA", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2047,25 +2047,25 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16060113</t>
+          <t>15831222</t>
         </is>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2591</v>
+        <v>2406</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Dehergne n\u00e3o especifica local, Brockey estudos Filosofia e Teologia em Coimbra", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "MMHM:p.94 (ARSI Japsin 35 13)", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>António de Gouvea</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2090,25 +2090,25 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>16080502</t>
+          <t>15840114</t>
         </is>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1014</v>
+        <v>169</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "ou 16090502"}, "value": {"comment": "(Franco, 1719, t.II, p. 612)", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "Segundo Dominguez &amp; O Neil, V.III,p.2961. Franco Imagem...Coimbra,II,4,c.36,p.575", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2133,25 +2133,25 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>16080601</t>
+          <t>15930202</t>
         </is>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>724</v>
+        <v>484</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "MMHM:p.8"}, "value": {"comment": "[Adicionado a partir de Franco, Imagem...Coimbra, II, 522", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "Segungo Dominguez, J. M., &amp; O\u2019Neill, C. (2001) II, 1113", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2176,25 +2176,25 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>16060113</t>
         </is>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1645</v>
+        <v>2606</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "\"\"\"Franco, Imagem...Coimbra, v.2 p.616; Barbosa Machado, v.3\"\"\"", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "Dehergne n\u00e3o especifica local, Brockey estudos Filosofia e Teologia em Coimbra", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-da-maia</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sebastião da Maia</t>
+          <t>António de Gouvea</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2219,25 +2219,25 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>16110000</t>
+          <t>16080502</t>
         </is>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>380</v>
+        <v>1014</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.205 (Sebastian da Maia, da Maya, d'Amaya)", "original": "?"}}</t>
+          <t>extra_info: {"date": {"comment": "ou 16090502"}, "value": {"comment": "(Franco, 1719, t.II, p. 612)", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2262,25 +2262,25 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16290510</t>
+          <t>16080601</t>
         </is>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>331</v>
+        <v>724</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.203 (Matias d'Amaia), Schutte, Monumenta historica japoniae I.1234", "original": "?"}}</t>
+          <t>extra_info: {"date": {"comment": "MMHM:p.8"}, "value": {"comment": "[Adicionado a partir de Franco, Imagem...Coimbra, II, 522", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>deh-adriano-pestana</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adriano Pestana</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2305,25 +2305,25 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>16350000</t>
+          <t>16100000</t>
         </is>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1016</v>
+        <v>1645</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Ver Brockey, p.230 cit. Carta de A.P. a Viteleschi, de Coimbra, 26 Agosto 1640", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "\"\"\"Franco, Imagem...Coimbra, v.2 p.616; Barbosa Machado, v.3\"\"\"", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>deh-adriano-pestana</t>
+          <t>deh-sebastiao-da-maia</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adriano Pestana</t>
+          <t>Sebastião da Maia</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>estadia-x</t>
+          <t>jesuita-entrada</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2348,25 +2348,25 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1640-08-26</t>
+          <t>16110000</t>
         </is>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1017</v>
+        <v>405</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Escreve a Viteleschi, ARSI, FG, no.58"}}</t>
+          <t>extra_info: {"value": {"comment": "MMHM:p.205 (Sebastian da Maia, da Maya, d'Amaya)", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-ferrao</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>André Ferrão</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2391,25 +2391,25 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16400000</t>
+          <t>16250000</t>
         </is>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>479</v>
+        <v>219</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v] extra_info: {"value": {"comment": "Brockey, cap.6 n.95", "original": "?"}}</t>
+          <t>extra_info: {"value": {"comment": "Segundo Louis Buglio 1688", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2419,40 +2419,40 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>jesuita-entrada</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Costa da Pescaria</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>16200000</t>
+          <t>16290510</t>
         </is>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "costa este do Sul da \u00cdndia, a norte do Cabo Comorim"}}</t>
+          <t>extra_info: {"value": {"comment": "MMHM:p.203 (Matias d'Amaia), Schutte, Monumenta historica japoniae I.1234", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-adriano-pestana</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2462,40 +2462,40 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Adriano Pestana</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>jesuita-entrada</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Costa da Pescaria</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>16210300</t>
+          <t>16350000</t>
         </is>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>179</v>
+        <v>1016</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "costa este do Sul da \u00cdndia, a norte do Cabo Comorim"}}</t>
+          <t>extra_info: {"value": {"comment": "Ver Brockey, p.230 cit. Carta de A.P. a Viteleschi, de Coimbra, 26 Agosto 1640", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-adriano-pestana</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2505,33 +2505,33 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>António de Gouvea</t>
+          <t>Adriano Pestana</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>estadia-x</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Foochow (Fou-tcheou fou), Fukien</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>16480000</t>
+          <t>1640-08-26</t>
         </is>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fuzhou, Fujian?"}}</t>
+          <t>extra_info: {"value": {"comment": "Escreve a Viteleschi, ARSI, FG, no.58"}}</t>
         </is>
       </c>
     </row>
@@ -2553,35 +2553,35 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>jesuita-entrada</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Foochow (Fou-tcheou fou, Fukien)</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>16610000</t>
+          <t>16400000</t>
         </is>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fuzhou, Fujian?"}}</t>
+          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v] extra_info: {"value": {"comment": "Brockey, cap.6 n.95", "original": "?"}}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2601,26 +2601,30 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Foochow fou, Fukien</t>
+          <t>Costa da Pescaria</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>16380000</t>
+          <t>16200000</t>
         </is>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>503</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "costa este do Sul da \u00cdndia, a norte do Cabo Comorim"}}</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2630,7 +2634,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>António de Gouvea</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2640,23 +2644,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Foochow, Fukien</t>
+          <t>Costa da Pescaria</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>16560000</t>
+          <t>16210300</t>
         </is>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1026</v>
+        <v>179</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fuzhou?"}}</t>
+          <t>extra_info: {"value": {"comment": "costa este do Sul da \u00cdndia, a norte do Cabo Comorim"}}</t>
         </is>
       </c>
     </row>
@@ -2683,30 +2687,30 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Foochow, Fukien</t>
+          <t>Foochow (Fou-tcheou fou), Fukien</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>16650000</t>
+          <t>16480000</t>
         </is>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>preso na perseguição e enviado para o Cantão extra_info: {"value": {"comment": "Fuzhou?"}}</t>
+          <t>extra_info: {"value": {"comment": "Fuzhou, Fujian?"}}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-andre-ferrao</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2716,40 +2720,40 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>António de Gouvea</t>
+          <t>André Ferrão</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Foochow, Fukien</t>
+          <t>Foochow (Fou-tcheou fou, Fukien)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>16690000</t>
+          <t>16610000</t>
         </is>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1031</v>
+        <v>488</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fuzhou?"}}</t>
+          <t>extra_info: {"value": {"comment": "Fuzhou, Fujian?"}}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2759,7 +2763,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>António de Gouvea</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2769,25 +2773,21 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Foochow, Fukien</t>
+          <t>Foochow fou, Fukien</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>16720000</t>
+          <t>16380000</t>
         </is>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1032</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Fuzhou?"}}</t>
-        </is>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2817,14 +2817,14 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>16770214</t>
+          <t>16560000</t>
         </is>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>António de Gouvea</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2855,23 +2855,23 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Foochow, Fukien</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>16290000</t>
+          <t>16650000</t>
         </is>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2596</v>
+        <v>1027</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
+          <t>preso na perseguição e enviado para o Cantão extra_info: {"value": {"comment": "Fuzhou?"}}</t>
         </is>
       </c>
     </row>
@@ -2893,35 +2893,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Foochow, Fukien</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>16460714</t>
+          <t>16690000</t>
         </is>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
+          <t>extra_info: {"value": {"comment": "Fuzhou?"}}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>António de Gouvea</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2941,30 +2941,30 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Foochow, Fukien</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>16930000</t>
+          <t>16720000</t>
         </is>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>807</v>
+        <v>1032</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
+          <t>extra_info: {"value": {"comment": "Fuzhou?"}}</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-pires</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2974,40 +2974,40 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Inácio Pires</t>
+          <t>António de Gouvea</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Fukien</t>
+          <t>Foochow, Fukien</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>17550000</t>
+          <t>16770214</t>
         </is>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1516</v>
+        <v>1037</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
+          <t>extra_info: {"value": {"comment": "Fuzhou?"}}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-caldas</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Luís de Caldas</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3027,30 +3027,30 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ganzhou, província de Jiangxi</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>17200000</t>
+          <t>16290000</t>
         </is>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>127</v>
+        <v>2611</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"original": "Kanchow (du Kiangsi)"}}</t>
+          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3060,40 +3060,40 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>António de Gouvea</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>jesuita-votos-local</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hang-tcheou</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>16230323</t>
+          <t>16460714</t>
         </is>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>776</v>
+        <v>1036</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "referida na Carta \u00e2nnua de 1623 Biblioteca da Ajuda, 49-V-6, p.105 [microfilem C0072-]"}}</t>
+          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3113,26 +3113,30 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hangchow</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>16160000&gt;</t>
+          <t>16930000</t>
         </is>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>771</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>807</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-inacio-pires</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3142,40 +3146,40 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Inácio Pires</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>chegada</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hangchow</t>
+          <t>Fukien</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>16240000</t>
+          <t>17550000</t>
         </is>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2595</v>
+        <v>1516</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Hangzhou"}}</t>
+          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-luis-de-caldas</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3185,7 +3189,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>António de Gouvea</t>
+          <t>Luís de Caldas</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3195,26 +3199,30 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hangchow</t>
+          <t>Ganzhou, província de Jiangxi</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>16360000&gt;</t>
+          <t>17200000</t>
         </is>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1023</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"original": "Kanchow (du Kiangsi)"}}</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3224,36 +3232,40 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ho-pei</t>
+          <t>Hang-tcheou</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>16930000</t>
+          <t>16230323</t>
         </is>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1313</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>776</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "referida na Carta \u00e2nnua de 1623 Biblioteca da Ajuda, 49-V-6, p.105 [microfilem C0072-]"}}</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3263,7 +3275,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3273,26 +3285,26 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Honan</t>
+          <t>Hangchow</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>16300000&gt;</t>
+          <t>16160000&gt;</t>
         </is>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jorge</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3302,36 +3314,40 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Manuel Jorge</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>chegada</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hwaian</t>
+          <t>Hangchow</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>16710000</t>
+          <t>16240000</t>
         </is>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>123</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>2610</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Hangzhou"}}</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jorge</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3341,7 +3357,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Manuel Jorge</t>
+          <t>António de Gouvea</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3351,26 +3367,26 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Hwaian (Houai-ngan)</t>
+          <t>Hangchow</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>16620000</t>
+          <t>16360000&gt;</t>
         </is>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>121</v>
+        <v>1023</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-ferrao</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3380,7 +3396,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>André Ferrão</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3390,30 +3406,26 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Hwaian (Houaingan fou), Kiang-sou</t>
+          <t>Ho-pei</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>16590000</t>
+          <t>16930000</t>
         </is>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>485</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Huai'an, Jaingsu?"}}</t>
-        </is>
-      </c>
+        <v>1313</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3423,7 +3435,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3433,26 +3445,26 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilha de Tsung-ming</t>
+          <t>Honan</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>17020000</t>
+          <t>16300000&gt;</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1317</v>
+        <v>692</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-manuel-jorge</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3462,36 +3474,36 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>Manuel Jorge</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kanchow</t>
+          <t>Hwaian</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>16900815</t>
+          <t>16710000</t>
         </is>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1301</v>
+        <v>123</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-manuel-jorge</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3501,7 +3513,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Manuel Jorge</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3511,26 +3523,26 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kanchow (Kan-tcheou) do Kiangsi</t>
+          <t>Hwaian (Houai-ngan)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>16650000</t>
+          <t>16620000</t>
         </is>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>344</v>
+        <v>121</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-osorio-i</t>
+          <t>deh-andre-ferrao</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3540,40 +3552,40 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Manuel Osório</t>
+          <t>André Ferrão</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>partida</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Kanchow, Kiangsi</t>
+          <t>Hwaian (Houaingan fou), Kiang-sou</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>17000000</t>
+          <t>16590000</t>
         </is>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>136</v>
+        <v>485</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "destinado"}}</t>
+          <t>extra_info: {"value": {"comment": "Huai'an, Jaingsu?"}}</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-da-silva</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3583,36 +3595,36 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>António da Silva</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>chegada</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Kiang-nan</t>
+          <t>Ilha de Tsung-ming</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>16960504</t>
+          <t>17020000</t>
         </is>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>961</v>
+        <v>1317</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-pires</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3622,36 +3634,36 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Inácio Pires</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>jesuita-votos-local</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Kiang-nan</t>
+          <t>Kanchow</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>17550000&gt;</t>
+          <t>16900815</t>
         </is>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1517</v>
+        <v>1326</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-gomes</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3661,7 +3673,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>António Gomes</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3671,26 +3683,26 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kiangnan</t>
+          <t>Kanchow (Kan-tcheou) do Kiangsi</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>17460000</t>
+          <t>16650000</t>
         </is>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>735</v>
+        <v>369</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jorge</t>
+          <t>deh-manuel-osorio-i</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3700,36 +3712,40 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Manuel Jorge</t>
+          <t>Manuel Osório</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>partida</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Kiangnan, Shanghai</t>
+          <t>Kanchow, Kiangsi</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>16550500&gt;</t>
+          <t>17000000</t>
         </is>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>118</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>136</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "destinado"}}</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-antonio-da-silva</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3739,36 +3755,36 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>António da Silva</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>chegada</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kiangnan, Shanghai</t>
+          <t>Kiang-nan</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>17000000</t>
+          <t>16960504</t>
         </is>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1290</v>
+        <v>961</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-inacio-pires</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3778,7 +3794,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>Inácio Pires</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3788,26 +3804,26 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Kiangnan, Shanghai</t>
+          <t>Kiang-nan</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>17130000</t>
+          <t>17550000&gt;</t>
         </is>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1291</v>
+        <v>1517</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-antonio-gomes</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3817,7 +3833,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>António Gomes</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3827,26 +3843,26 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Kiating</t>
+          <t>Kiangnan</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>16160000&gt;</t>
+          <t>17460000</t>
         </is>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-manuel-jorge</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3856,7 +3872,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Manuel Jorge</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3866,26 +3882,26 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Kiating</t>
+          <t>Kiangnan, Shanghai</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>16270000</t>
+          <t>16550500&gt;</t>
         </is>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3895,7 +3911,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3905,26 +3921,26 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kiating, Kiangnan</t>
+          <t>Kiangnan, Shanghai</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>16190715&gt;</t>
+          <t>17000000</t>
         </is>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1650</v>
+        <v>1315</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3934,7 +3950,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3944,26 +3960,26 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kien-tch'ang, Kiangsi</t>
+          <t>Kiangnan, Shanghai</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>16160000</t>
+          <t>17130000</t>
         </is>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>768</v>
+        <v>1316</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3973,7 +3989,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3983,30 +3999,26 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Kienchang no Kiangsi</t>
+          <t>Kiating</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>16300000</t>
+          <t>16160000&gt;</t>
         </is>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>691</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "no Jiangxi?"}}</t>
-        </is>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-nunes-barreto</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4016,7 +4028,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Belchior Nunes Barreto</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4026,26 +4038,26 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Kwangtung</t>
+          <t>Kiating</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>15560000&gt;</t>
+          <t>16270000</t>
         </is>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>deh-antao-dantas</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4055,36 +4067,36 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Antão Dantas</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>chegada</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Kwangtung, China</t>
+          <t>Kiating, Kiangnan</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>16991000</t>
+          <t>16190715&gt;</t>
         </is>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>37</v>
+        <v>1650</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4094,36 +4106,36 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Kẻ Sặt, Tonquim</t>
+          <t>Kien-tch'ang, Kiangsi</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>17191203</t>
+          <t>16160000</t>
         </is>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1175</v>
+        <v>768</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-ribeiro-senior</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4133,7 +4145,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Manuel Ribeiro, sénior</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4143,26 +4155,30 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Lui-tcheou</t>
+          <t>Kienchang no Kiangsi</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>17120000</t>
+          <t>16300000</t>
         </is>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>336</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>691</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "no Jiangxi?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-ribeiro-senior</t>
+          <t>deh-belchior-nunes-barreto</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4172,7 +4188,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Manuel Ribeiro, sénior</t>
+          <t>Belchior Nunes Barreto</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4182,30 +4198,26 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Lui-tcheou</t>
+          <t>Kwangtung</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>17200000</t>
+          <t>15560000&gt;</t>
         </is>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>338</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Leizhou?"}}</t>
-        </is>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-antao-dantas</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4215,40 +4227,36 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Antão Dantas</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>chegada</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Kwangtung, China</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>16291015</t>
+          <t>16991000</t>
         </is>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1142</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "segundo Loure\u00e7o &amp; Pinto, p. 30"}}</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4258,40 +4266,36 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>jesuita-votos-local</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Meiling</t>
+          <t>Kẻ Sặt, Tonquim</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>16040800</t>
+          <t>17191203</t>
         </is>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>682</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "a caminho de Pequim"}}</t>
-        </is>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-manuel-ribeiro-senior</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4301,7 +4305,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>Manuel Ribeiro, sénior</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4311,30 +4315,26 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Namyung (Nan-hiong)</t>
+          <t>Lui-tcheou</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>16070427</t>
+          <t>17120000</t>
         </is>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>689</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "data de transfer\u00eancia"}}</t>
-        </is>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-manuel-ribeiro-senior</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>Manuel Ribeiro, sénior</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4354,26 +4354,30 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Nan-tch'ang fou</t>
+          <t>Lui-tcheou</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>15980623</t>
+          <t>17200000</t>
         </is>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>760</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>338</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Leizhou?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4383,36 +4387,40 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Nan-tch'ang fou</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>16090000</t>
+          <t>16291015</t>
         </is>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>765</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1142</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "segundo Loure\u00e7o &amp; Pinto, p. 30"}}</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4422,7 +4430,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4432,26 +4440,30 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Nan-tch'ang fou</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>16160000</t>
+          <t>16360000</t>
         </is>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>766</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "\"\"\"\n            Buglio 1688: \"Il arriva en 1634 \u00e0 Goa, o\u00f9 il fut aussit\u00f4t\n             employ\u00e9 \u00e0 enseigner la rh\u00e9torique aux jeunes religieux de\n             la maison. Deux ans apr\u00e8s il demanda instamment d'\u00eatre\n             envoy\u00e9 \u00e0 la mission du Japon ; ce que ses sup\u00e9rieurs lui\n             accord\u00e8rent avec beaucoup de peine, \u00e0 cause du progr\u00e8s\n             extraordinaire que ses \u00e9coliers faisaient sous un tel\n             ma\u00eetre. Quand il fut arriv\u00e9 \u00e0 Macao, le p\u00e8re visiteur lui\n             ordonna d'enseigner la philosophie ;\"\n\n            \"\"\""}}</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-pires</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4461,36 +4473,40 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Inácio Pires</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Nancham, Kiangsi («in pago Inxam civitates»)</t>
+          <t>Meiling</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>17600302</t>
+          <t>16040800</t>
         </is>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1521</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>682</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "a caminho de Pequim"}}</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-soeiro</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4500,7 +4516,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>João Soeiro</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4510,26 +4526,30 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nanchang (Nan-tch'ang fou)</t>
+          <t>Namyung (Nan-hiong)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>15951224</t>
+          <t>16070427</t>
         </is>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1767</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>689</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "data de transfer\u00eancia"}}</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-soeiro</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4539,7 +4559,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>João Soeiro</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4549,26 +4569,26 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nanchang (Nan-tch'ang fou)</t>
+          <t>Nan-tch'ang fou</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>16040000</t>
+          <t>15980623</t>
         </is>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1768</v>
+        <v>760</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4578,7 +4598,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4588,26 +4608,26 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Nanchang (Nan-tch'ang)</t>
+          <t>Nan-tch'ang fou</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>16070000</t>
+          <t>16090000</t>
         </is>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4617,7 +4637,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4627,26 +4647,26 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Nanchang (Nan-tch'ang)</t>
+          <t>Nan-tch'ang fou</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>16850000</t>
+          <t>16160000</t>
         </is>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1288</v>
+        <v>766</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-inacio-pires</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4656,36 +4676,36 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>Inácio Pires</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>jesuita-votos-local</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Nanchang (Nan-tch'ang)</t>
+          <t>Nancham, Kiangsi («in pago Inxam civitates»)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>16910000</t>
+          <t>17600302</t>
         </is>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1289</v>
+        <v>1521</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-joao-soeiro</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4695,7 +4715,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>João Soeiro</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4705,26 +4725,26 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Nanchang fou, Kiangsi</t>
+          <t>Nanchang (Nan-tch'ang fou)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>16340000</t>
+          <t>15951224</t>
         </is>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>502</v>
+        <v>1767</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-joao-soeiro</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4734,7 +4754,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>João Soeiro</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4744,30 +4764,26 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Nanchang (Nan-tch'ang fou)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>16040800</t>
+          <t>16040000</t>
         </is>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>683</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"original": "Nankin, a caminho de Pequim"}}</t>
-        </is>
-      </c>
+        <v>1768</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-perez</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4777,40 +4793,36 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Francisco Pérez</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Negapatam</t>
+          <t>Nanchang (Nan-tch'ang)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>15830222</t>
+          <t>16070000</t>
         </is>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>871</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "15830112 no estilo antigo"}}</t>
-        </is>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4820,7 +4832,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4830,26 +4842,26 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ningpo</t>
+          <t>Nanchang (Nan-tch'ang)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>16390000</t>
+          <t>16850000</t>
         </is>
       </c>
       <c r="G107" t="b">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>504</v>
+        <v>1313</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4859,7 +4871,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4869,26 +4881,26 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Paoting fou</t>
+          <t>Nanchang (Nan-tch'ang)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>16070000</t>
+          <t>16910000</t>
         </is>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>685</v>
+        <v>1314</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4898,7 +4910,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4908,26 +4920,26 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Puchow, Shansi</t>
+          <t>Nanchang fou, Kiangsi</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>16460000</t>
+          <t>16340000</t>
         </is>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1663</v>
+        <v>502</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4937,7 +4949,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4947,26 +4959,30 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Puchow, Shansi</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>16470000</t>
+          <t>16040800</t>
         </is>
       </c>
       <c r="G110" t="b">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>1664</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>683</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"original": "Nankin, a caminho de Pequim"}}</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-de-alcacova</t>
+          <t>deh-francisco-perez</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4976,40 +4992,40 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Pedro de Alcáçova</t>
+          <t>Francisco Pérez</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Shangchuan</t>
+          <t>Negapatam</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>15530000</t>
+          <t>15830222</t>
         </is>
       </c>
       <c r="G111" t="b">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>299</v>
+        <v>871</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"original": "ilha de \u00abSancien\u00bb (Changtch'ouan, Shangchwan)"}}</t>
+          <t>extra_info: {"date": {"comment": "15830112 no estilo antigo"}}</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-nunes-barreto</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5019,7 +5035,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Belchior Nunes Barreto</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5029,30 +5045,26 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Shangchuan</t>
+          <t>Ningpo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>15550000</t>
+          <t>16390000</t>
         </is>
       </c>
       <c r="G112" t="b">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>380</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"original": "Sancian"}}</t>
-        </is>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5062,7 +5074,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5072,26 +5084,26 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Shensi</t>
+          <t>Paoting fou</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>16300000</t>
+          <t>16070000</t>
         </is>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1652</v>
+        <v>685</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5101,7 +5113,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5111,26 +5123,26 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Shiuchow (Chao-tcheou)</t>
+          <t>Puchow, Shansi</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>16110000</t>
+          <t>16460000</t>
         </is>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>490</v>
+        <v>1663</v>
       </c>
       <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5140,7 +5152,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5150,26 +5162,26 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Shiuchow (Chao-tcheou)</t>
+          <t>Puchow, Shansi</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>16120000</t>
+          <t>16470000</t>
         </is>
       </c>
       <c r="G115" t="b">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>688</v>
+        <v>1664</v>
       </c>
       <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-pedro-de-alcacova</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5179,7 +5191,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Pedro de Alcáçova</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5189,26 +5201,30 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sian (Si-ngan fou) (residência)</t>
+          <t>Shangchuan</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>16310000</t>
+          <t>15530000</t>
         </is>
       </c>
       <c r="G116" t="b">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>1653</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>299</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"original": "ilha de \u00abSancien\u00bb (Changtch'ouan, Shangchwan)"}}</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>deh-inacio-pires</t>
+          <t>deh-belchior-nunes-barreto</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5218,7 +5234,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Inácio Pires</t>
+          <t>Belchior Nunes Barreto</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5228,30 +5244,30 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Song-kiang fou</t>
+          <t>Shangchuan</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>17651023</t>
+          <t>15550000</t>
         </is>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>1518</v>
+        <v>380</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "preso"}}</t>
+          <t>extra_info: {"value": {"original": "Sancian"}}</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5261,7 +5277,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5271,26 +5287,26 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sungkiang</t>
+          <t>Shensi</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>16990000</t>
+          <t>16300000</t>
         </is>
       </c>
       <c r="G118" t="b">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1315</v>
+        <v>1652</v>
       </c>
       <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5300,7 +5316,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5310,26 +5326,26 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Tchö-kiang</t>
+          <t>Shiuchow (Chao-tcheou)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>16171002</t>
+          <t>16110000</t>
         </is>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5339,7 +5355,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5349,30 +5365,26 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Shiuchow (Chao-tcheou)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>16230000</t>
+          <t>16120000</t>
         </is>
       </c>
       <c r="G120" t="b">
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>735</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>[com os padres António Cardim e António de Fontes, Franco, Imagem...Coimbra, II, p.522]</t>
-        </is>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>deh-estanislau-machado</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5382,7 +5394,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Estanislau Machado</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5392,26 +5404,26 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Sian (Si-ngan fou) (residência)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>16940000</t>
+          <t>16310000</t>
         </is>
       </c>
       <c r="G121" t="b">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>30</v>
+        <v>1653</v>
       </c>
       <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-inacio-pires</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5421,7 +5433,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>Inácio Pires</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5431,26 +5443,30 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Song-kiang fou</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>17230000</t>
+          <t>17651023</t>
         </is>
       </c>
       <c r="G122" t="b">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1167</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1518</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "preso"}}</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5460,7 +5476,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5470,30 +5486,26 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Sungkiang</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>17250000&gt;</t>
+          <t>16990000</t>
         </is>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>1173</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "reclam\u00e9 par la Propagande"}}</t>
-        </is>
-      </c>
+        <v>1315</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>deh-estanislau-machado</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5503,36 +5515,36 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Estanislau Machado</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Tchö-kiang</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>17290720</t>
+          <t>16171002</t>
         </is>
       </c>
       <c r="G124" t="b">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>40</v>
+        <v>690</v>
       </c>
       <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5542,36 +5554,36 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Tonquim («in sacello S. J.»)</t>
+          <t>Tong-t'ang, Pequim</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>16380106</t>
+          <t>16550000</t>
         </is>
       </c>
       <c r="G125" t="b">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>745</v>
+        <v>246</v>
       </c>
       <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5581,7 +5593,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5591,30 +5603,30 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Tsinan fou, Shantung</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>16910000</t>
+          <t>16230000</t>
         </is>
       </c>
       <c r="G126" t="b">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>805</v>
+        <v>735</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "Talvez Jinan - antigo Tsinan - na regi\u00e3o de Shandong?"}}</t>
+          <t>[com os padres António Cardim e António de Fontes, Franco, Imagem...Coimbra, II, p.522]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5624,7 +5636,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>António de Gouvea</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5634,26 +5646,26 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Wuchang (Wou-tch'ang fou)</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>16360000&gt;</t>
+          <t>16940000</t>
         </is>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>1024</v>
+        <v>30</v>
       </c>
       <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5663,7 +5675,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5673,26 +5685,26 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Yenping (Yen-p'ing), Fukien</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>16570000</t>
+          <t>17230000</t>
         </is>
       </c>
       <c r="G128" t="b">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>2599</v>
+        <v>1192</v>
       </c>
       <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5702,7 +5714,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5712,26 +5724,30 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Yenping fou, Fukien</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>16480000</t>
+          <t>17250000&gt;</t>
         </is>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>505</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1198</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "reclam\u00e9 par la Propagande"}}</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5741,40 +5757,36 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Yenping, Foukien</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>16910000</t>
+          <t>17290720</t>
         </is>
       </c>
       <c r="G130" t="b">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1311</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
-        </is>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-alvares</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5784,40 +5796,36 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Gonçalo Álvares</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>jesuita-votos-local</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[A caminho do Japão]</t>
+          <t>Tonquim («in sacello S. J.»)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>15730700</t>
+          <t>16380106</t>
         </is>
       </c>
       <c r="G131" t="b">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>700</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>morre afogado com quatro companheiros no caminho da China para o Japão extra_info: {"value": {"comment": "vindo da China"}}</t>
-        </is>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-martins</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5827,40 +5835,40 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Pedro Martins</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[No mar, a caminho de Malaca]</t>
+          <t>Tsinan fou, Shantung</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>15980213</t>
+          <t>16910000</t>
         </is>
       </c>
       <c r="G132" t="b">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "=morre de febre \u00abcalenturas\u00bb foi enterrado em Malaca em 15980218"}, "value": {"comment": "40 l\u00e9guas antes de desembarcar"}}</t>
+          <t>extra_info: {"value": {"comment": "Talvez Jinan - antigo Tsinan - na regi\u00e3o de Shandong?"}}</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>deh-afonso-aires</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5870,36 +5878,36 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Afonso Aires</t>
+          <t>António de Gouvea</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[No mar, depois do Cabo da Boa Esperança]</t>
+          <t>Wuchang (Wou-tch'ang fou)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>16570000</t>
+          <t>16360000&gt;</t>
         </is>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>189</v>
+        <v>1024</v>
       </c>
       <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5909,40 +5917,36 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[Perto de Hainan]</t>
+          <t>Yenping (Yen-p'ing), Fukien</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>16460226</t>
+          <t>16570000</t>
         </is>
       </c>
       <c r="G134" t="b">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>746</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "naufr\u00e1gio, a caminho de Tonquim"}}</t>
-        </is>
-      </c>
+        <v>2614</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-martins</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5952,7 +5956,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pedro Martins</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5962,25 +5966,21 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[Perto de Moçambique]</t>
+          <t>Yenping fou, Fukien</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>15840000&gt;</t>
+          <t>16480000</t>
         </is>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>780</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>naufrágio</t>
-        </is>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -6000,31 +6000,35 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>«Cinanfu» (Tsinan), Shangtung</t>
+          <t>Yenping, Foukien</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>16950815</t>
+          <t>16910000</t>
         </is>
       </c>
       <c r="G136" t="b">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1328</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1311</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "Fujian?"}}</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-goncalo-alvares</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6034,70 +6038,320 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>Gonçalo Álvares</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>«Nanhiuni» (Namyung)</t>
+          <t>[A caminho do Japão]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>16121121</t>
+          <t>15730700</t>
         </is>
       </c>
       <c r="G137" t="b">
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>696</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>morre afogado com quatro companheiros no caminho da China para o Japão extra_info: {"value": {"comment": "vindo da China"}}</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
+          <t>deh-pedro-martins</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Pedro Martins</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>morte</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[No mar, a caminho de Malaca]</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>15980213</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>819</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>extra_info: {"date": {"comment": "=morre de febre \u00abcalenturas\u00bb foi enterrado em Malaca em 15980218"}, "value": {"comment": "40 l\u00e9guas antes de desembarcar"}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>deh-afonso-aires</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Afonso Aires</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>morte</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[No mar, depois do Cabo da Boa Esperança]</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>16570000</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>189</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>deh-gaspar-do-amaral</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Gaspar do Amaral</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>morte</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[Perto de Hainan]</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>16460226</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>746</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "naufr\u00e1gio, a caminho de Tonquim"}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>deh-pedro-martins</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Pedro Martins</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>estadia</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[Perto de Moçambique]</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>15840000&gt;</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>805</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>naufrágio</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>deh-francisco-pinto-i</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Francisco Pinto</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>jesuita-votos-local</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>«Cinanfu» (Tsinan), Shangtung</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>16950815</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1328</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>deh-gaspar-ferreira</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Gaspar Ferreira</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>jesuita-votos-local</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>«Nanhiuni» (Namyung)</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>16121121</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>696</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
           <t>deh-estanislau-machado</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>Estanislau Machado</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>jesuita-votos-local</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>«in pago Ke Sat»</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>17000202</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
         <v>39</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
